--- a/config_1.26/activity_exchange_server.xlsx
+++ b/config_1.26/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="254">
   <si>
     <t>id|</t>
   </si>
@@ -1256,6 +1256,42 @@
   </si>
   <si>
     <t>3500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳取暖器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档暖手宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛围巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼-cjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1342,7 +1378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1370,18 +1406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,53 +1571,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1875,7 +1861,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1885,9 +1871,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="52" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="45" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="45" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2524,342 +2510,390 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="35" customFormat="1">
-      <c r="A20" s="21">
+    <row r="20" spans="1:16" s="43" customFormat="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="8">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="21">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
         <v>19</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="16">
         <v>19</v>
       </c>
-      <c r="K20" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="30" customFormat="1">
-      <c r="A21" s="21">
+      <c r="K20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="27" customFormat="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="25" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
         <v>20</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="16">
         <v>20</v>
       </c>
-      <c r="K21" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A22" s="45">
+      <c r="K21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="50" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="51">
-        <v>1</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="51">
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="42">
         <v>21</v>
       </c>
-      <c r="K22" s="48">
-        <v>1</v>
-      </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A23" s="45">
+      <c r="K22" s="27">
+        <v>1</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="50" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="51">
-        <v>1</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="51">
+      <c r="H23" s="42">
+        <v>1</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="42">
         <v>22</v>
       </c>
-      <c r="K23" s="48">
-        <v>1</v>
-      </c>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A24" s="45">
+      <c r="K23" s="27">
+        <v>1</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="50" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="51">
-        <v>1</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="51">
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="42">
         <v>23</v>
       </c>
-      <c r="K24" s="48">
-        <v>1</v>
-      </c>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" s="56" customFormat="1">
-      <c r="A25" s="56">
+      <c r="K24" s="27">
+        <v>1</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:16" s="27" customFormat="1">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="8">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="60">
-        <v>1</v>
-      </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60">
+      <c r="H25" s="42">
+        <v>1</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42">
         <v>24</v>
       </c>
-      <c r="K25" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="56" customFormat="1">
-      <c r="A26" s="56">
+      <c r="K25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="27" customFormat="1">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="8">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="H26" s="60">
-        <v>1</v>
-      </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60">
+      <c r="H26" s="42">
+        <v>1</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="42">
         <v>25</v>
       </c>
-      <c r="K26" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="56" customFormat="1">
-      <c r="A27" s="58">
+      <c r="K26" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="27" customFormat="1">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="61" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="60">
-        <v>1</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60">
+      <c r="H27" s="42">
+        <v>1</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="42">
         <v>26</v>
       </c>
-      <c r="K27" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="48" customFormat="1">
-      <c r="A28" s="48">
+      <c r="K27" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="27" customFormat="1">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="50" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="51">
-        <v>1</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="51">
+      <c r="H28" s="42">
+        <v>1</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
         <v>27</v>
       </c>
-      <c r="K28" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="48" customFormat="1">
-      <c r="A29" s="48">
+      <c r="K28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="27" customFormat="1">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="50" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="51">
-        <v>1</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="51">
+      <c r="H29" s="42">
+        <v>1</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="42">
         <v>28</v>
       </c>
-      <c r="K29" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="48" customFormat="1">
-      <c r="A30" s="45">
+      <c r="K29" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="27" customFormat="1">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="50" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="51">
-        <v>1</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="51">
+      <c r="H30" s="42">
+        <v>1</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="42">
         <v>29</v>
       </c>
-      <c r="K30" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="K30" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="43" customFormat="1">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1611619200</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1612195199</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
+        <v>21</v>
+      </c>
+      <c r="J31" s="36">
+        <v>30</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="27" customFormat="1">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="38">
+        <v>1611619200</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1612195199</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1</v>
+      </c>
+      <c r="I32" s="38">
+        <v>22</v>
+      </c>
+      <c r="J32" s="47">
+        <v>31</v>
+      </c>
+      <c r="K32" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
@@ -2888,10 +2922,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3132,26 +3166,48 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="38">
+    <row r="20" spans="1:3" s="8" customFormat="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="38">
+    <row r="21" spans="1:3" s="8" customFormat="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="26" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="38">
+        <v>22</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3167,10 +3223,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="E163" sqref="E163:E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6711,25 +6767,24 @@
       <c r="A138" s="8">
         <v>137</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B138" s="31">
         <v>19</v>
       </c>
-      <c r="C138" s="19">
-        <v>1</v>
-      </c>
-      <c r="D138" s="34" t="s">
+      <c r="C138" s="31">
+        <v>1</v>
+      </c>
+      <c r="D138" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E138" s="19" t="s">
+      <c r="E138" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20" t="s">
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17">
+      <c r="J138" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6737,25 +6792,24 @@
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="19">
+      <c r="B139" s="31">
         <v>19</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C139" s="31">
         <v>2</v>
       </c>
-      <c r="D139" s="34" t="s">
+      <c r="D139" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E139" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20" t="s">
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17">
+      <c r="J139" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6763,25 +6817,23 @@
       <c r="A140" s="8">
         <v>139</v>
       </c>
-      <c r="B140" s="19">
+      <c r="B140" s="31">
         <v>19</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="31">
         <v>3</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E140" s="19" t="s">
+      <c r="E140" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20" t="s">
+      <c r="G140" s="33"/>
+      <c r="H140" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17">
+      <c r="J140" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6789,53 +6841,50 @@
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="19">
+      <c r="B141" s="31">
         <v>19</v>
       </c>
-      <c r="C141" s="19">
+      <c r="C141" s="31">
         <v>4</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="20" t="s">
+      <c r="E141" s="31"/>
+      <c r="F141" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G141" s="20" t="s">
+      <c r="G141" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
     </row>
     <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A142" s="8">
         <v>141</v>
       </c>
-      <c r="B142" s="19">
+      <c r="B142" s="31">
         <v>19</v>
       </c>
-      <c r="C142" s="19">
+      <c r="C142" s="31">
         <v>5</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="41" t="s">
+      <c r="E142" s="31"/>
+      <c r="F142" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G142" s="20" t="s">
+      <c r="G142" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H142" s="18" t="s">
+      <c r="H142" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17">
+      <c r="J142" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6843,27 +6892,26 @@
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="19">
+      <c r="B143" s="31">
         <v>19</v>
       </c>
-      <c r="C143" s="19">
+      <c r="C143" s="31">
         <v>6</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="41" t="s">
+      <c r="E143" s="31"/>
+      <c r="F143" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G143" s="20" t="s">
+      <c r="G143" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H143" s="18" t="s">
+      <c r="H143" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17">
+      <c r="J143" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6871,732 +6919,939 @@
       <c r="A144" s="8">
         <v>143</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="31">
         <v>19</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C144" s="31">
         <v>7</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="20" t="s">
+      <c r="E144" s="31"/>
+      <c r="F144" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G144" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="H144" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="8" customFormat="1" ht="16.5">
+      <c r="J144" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="19">
+      <c r="B145" s="31">
         <v>19</v>
       </c>
-      <c r="C145" s="19">
+      <c r="C145" s="31">
         <v>8</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="41" t="s">
+      <c r="E145" s="31"/>
+      <c r="F145" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H145" s="20" t="s">
+      <c r="H145" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" s="8" customFormat="1">
+      <c r="J145" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="8" customFormat="1">
       <c r="A146" s="8">
         <v>145</v>
       </c>
-      <c r="B146" s="22">
+      <c r="B146" s="31">
         <v>20</v>
       </c>
-      <c r="C146" s="22">
-        <v>1</v>
-      </c>
-      <c r="D146" s="23" t="s">
+      <c r="C146" s="31">
+        <v>1</v>
+      </c>
+      <c r="D146" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="22" t="s">
+      <c r="E146" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24" t="s">
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" s="8" customFormat="1">
+      <c r="J146" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="8" customFormat="1">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="31">
         <v>20</v>
       </c>
-      <c r="C147" s="22">
+      <c r="C147" s="31">
         <v>2</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E147" s="22" t="s">
+      <c r="E147" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24" t="s">
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" s="8" customFormat="1">
+      <c r="J147" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="8" customFormat="1">
       <c r="A148" s="8">
         <v>147</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="31">
         <v>20</v>
       </c>
-      <c r="C148" s="22">
+      <c r="C148" s="31">
         <v>3</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E148" s="22" t="s">
+      <c r="E148" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24" t="s">
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" s="8" customFormat="1">
+      <c r="J148" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="8" customFormat="1">
       <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="31">
         <v>20</v>
       </c>
-      <c r="C149" s="22">
+      <c r="C149" s="31">
         <v>4</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="24" t="s">
+      <c r="E149" s="31"/>
+      <c r="F149" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G149" s="24" t="s">
+      <c r="G149" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H149" s="24" t="s">
+      <c r="H149" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-    </row>
-    <row r="150" spans="1:12" s="8" customFormat="1">
+    </row>
+    <row r="150" spans="1:10" s="8" customFormat="1">
       <c r="A150" s="8">
         <v>149</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="31">
         <v>20</v>
       </c>
-      <c r="C150" s="22">
+      <c r="C150" s="31">
         <v>5</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="24" t="s">
+      <c r="E150" s="31"/>
+      <c r="F150" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G150" s="24" t="s">
+      <c r="G150" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H150" s="25" t="s">
+      <c r="H150" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21">
+      <c r="J150" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="8" customFormat="1">
+    <row r="151" spans="1:10" s="8" customFormat="1">
       <c r="A151" s="8">
         <v>150</v>
       </c>
-      <c r="B151" s="22">
+      <c r="B151" s="31">
         <v>20</v>
       </c>
-      <c r="C151" s="22">
+      <c r="C151" s="31">
         <v>6</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="25" t="s">
+      <c r="E151" s="31"/>
+      <c r="F151" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="24" t="s">
+      <c r="G151" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H151" s="25" t="s">
+      <c r="H151" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I151" s="21"/>
-      <c r="J151" s="21">
+      <c r="J151" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="8" customFormat="1">
+    <row r="152" spans="1:10" s="8" customFormat="1">
       <c r="A152" s="8">
         <v>151</v>
       </c>
-      <c r="B152" s="22">
+      <c r="B152" s="31">
         <v>20</v>
       </c>
-      <c r="C152" s="22">
+      <c r="C152" s="31">
         <v>7</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="22"/>
-      <c r="F152" s="24" t="s">
+      <c r="E152" s="31"/>
+      <c r="F152" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G152" s="24" t="s">
+      <c r="G152" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="H152" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" s="8" customFormat="1">
+      <c r="J152" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="8" customFormat="1">
       <c r="A153" s="8">
         <v>152</v>
       </c>
-      <c r="B153" s="22">
+      <c r="B153" s="31">
         <v>20</v>
       </c>
-      <c r="C153" s="22">
+      <c r="C153" s="31">
         <v>8</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="22"/>
-      <c r="F153" s="25" t="s">
+      <c r="E153" s="31"/>
+      <c r="F153" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G153" s="24" t="s">
+      <c r="G153" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="H153" s="24" t="s">
+      <c r="H153" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="J153" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="8" customFormat="1">
       <c r="A154" s="8">
         <v>153</v>
       </c>
-      <c r="B154" s="53">
+      <c r="B154" s="31">
         <v>21</v>
       </c>
-      <c r="C154" s="53">
-        <v>1</v>
-      </c>
-      <c r="D154" s="54" t="s">
+      <c r="C154" s="31">
+        <v>1</v>
+      </c>
+      <c r="D154" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E154" s="53"/>
-      <c r="F154" s="55" t="s">
+      <c r="E154" s="31"/>
+      <c r="F154" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G154" s="55" t="s">
+      <c r="G154" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="H154" s="53" t="s">
+      <c r="H154" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45">
+      <c r="J154" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:10" s="8" customFormat="1">
       <c r="A155" s="8">
         <v>154</v>
       </c>
-      <c r="B155" s="53">
+      <c r="B155" s="31">
         <v>22</v>
       </c>
-      <c r="C155" s="53">
-        <v>1</v>
-      </c>
-      <c r="D155" s="54" t="s">
+      <c r="C155" s="31">
+        <v>1</v>
+      </c>
+      <c r="D155" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E155" s="53"/>
-      <c r="F155" s="55" t="s">
+      <c r="E155" s="31"/>
+      <c r="F155" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G155" s="55" t="s">
+      <c r="G155" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="H155" s="53" t="s">
+      <c r="H155" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="I155" s="45"/>
-      <c r="J155" s="45">
+      <c r="J155" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:10" s="8" customFormat="1">
       <c r="A156" s="8">
         <v>155</v>
       </c>
-      <c r="B156" s="53">
+      <c r="B156" s="31">
         <v>23</v>
       </c>
-      <c r="C156" s="53">
-        <v>1</v>
-      </c>
-      <c r="D156" s="54" t="s">
+      <c r="C156" s="31">
+        <v>1</v>
+      </c>
+      <c r="D156" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E156" s="53"/>
-      <c r="F156" s="55" t="s">
+      <c r="E156" s="31"/>
+      <c r="F156" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G156" s="55" t="s">
+      <c r="G156" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="H156" s="53" t="s">
+      <c r="H156" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="I156" s="45"/>
-      <c r="J156" s="45">
+      <c r="J156" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:10" s="8" customFormat="1">
       <c r="A157" s="8">
         <v>156</v>
       </c>
-      <c r="B157" s="62">
+      <c r="B157" s="31">
         <v>24</v>
       </c>
-      <c r="C157" s="62">
-        <v>1</v>
-      </c>
-      <c r="D157" s="63" t="s">
+      <c r="C157" s="31">
+        <v>1</v>
+      </c>
+      <c r="D157" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E157" s="62"/>
-      <c r="F157" s="64" t="s">
+      <c r="E157" s="31"/>
+      <c r="F157" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G157" s="64" t="s">
+      <c r="G157" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="H157" s="62" t="s">
+      <c r="H157" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58">
+      <c r="J157" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:10" s="8" customFormat="1">
       <c r="A158" s="8">
         <v>157</v>
       </c>
-      <c r="B158" s="62">
+      <c r="B158" s="31">
         <v>25</v>
       </c>
-      <c r="C158" s="62">
-        <v>1</v>
-      </c>
-      <c r="D158" s="63" t="s">
+      <c r="C158" s="31">
+        <v>1</v>
+      </c>
+      <c r="D158" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E158" s="62"/>
-      <c r="F158" s="64" t="s">
+      <c r="E158" s="31"/>
+      <c r="F158" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G158" s="64" t="s">
+      <c r="G158" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="H158" s="62" t="s">
+      <c r="H158" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58">
+      <c r="J158" s="8">
         <v>9999</v>
       </c>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="1:12">
+    </row>
+    <row r="159" spans="1:10" s="8" customFormat="1">
       <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="62">
+      <c r="B159" s="31">
         <v>26</v>
       </c>
-      <c r="C159" s="62">
-        <v>1</v>
-      </c>
-      <c r="D159" s="63" t="s">
+      <c r="C159" s="31">
+        <v>1</v>
+      </c>
+      <c r="D159" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E159" s="62"/>
-      <c r="F159" s="64" t="s">
+      <c r="E159" s="31"/>
+      <c r="F159" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G159" s="64" t="s">
+      <c r="G159" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="H159" s="62" t="s">
+      <c r="H159" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58">
+      <c r="J159" s="8">
         <v>9999</v>
       </c>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="1:12">
+    </row>
+    <row r="160" spans="1:10" s="8" customFormat="1">
       <c r="A160" s="8">
         <v>159</v>
       </c>
-      <c r="B160" s="53">
+      <c r="B160" s="31">
         <v>27</v>
       </c>
-      <c r="C160" s="53">
-        <v>1</v>
-      </c>
-      <c r="D160" s="54" t="s">
+      <c r="C160" s="31">
+        <v>1</v>
+      </c>
+      <c r="D160" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E160" s="53"/>
-      <c r="F160" s="55" t="s">
+      <c r="E160" s="31"/>
+      <c r="F160" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G160" s="55" t="s">
+      <c r="G160" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="H160" s="53" t="s">
+      <c r="H160" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="I160" s="45"/>
-      <c r="J160" s="45">
+      <c r="J160" s="8">
         <v>9999</v>
       </c>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="1:12">
+    </row>
+    <row r="161" spans="1:10" s="8" customFormat="1">
       <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="53">
+      <c r="B161" s="31">
         <v>28</v>
       </c>
-      <c r="C161" s="53">
-        <v>1</v>
-      </c>
-      <c r="D161" s="54" t="s">
+      <c r="C161" s="31">
+        <v>1</v>
+      </c>
+      <c r="D161" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E161" s="53"/>
-      <c r="F161" s="55" t="s">
+      <c r="E161" s="31"/>
+      <c r="F161" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G161" s="55" t="s">
+      <c r="G161" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="H161" s="53" t="s">
+      <c r="H161" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45">
+      <c r="J161" s="8">
         <v>9999</v>
       </c>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="1:12">
+    </row>
+    <row r="162" spans="1:10" s="8" customFormat="1">
       <c r="A162" s="8">
         <v>161</v>
       </c>
-      <c r="B162" s="53">
+      <c r="B162" s="31">
         <v>29</v>
       </c>
-      <c r="C162" s="53">
-        <v>1</v>
-      </c>
-      <c r="D162" s="54" t="s">
+      <c r="C162" s="31">
+        <v>1</v>
+      </c>
+      <c r="D162" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="53"/>
-      <c r="F162" s="55" t="s">
+      <c r="E162" s="31"/>
+      <c r="F162" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G162" s="55" t="s">
+      <c r="G162" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="H162" s="53" t="s">
+      <c r="H162" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="I162" s="45"/>
-      <c r="J162" s="45">
+      <c r="J162" s="8">
         <v>9999</v>
       </c>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="9"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="9"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="9"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="9"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="9"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="9"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="9"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="9"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="8"/>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="9"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="9"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="12"/>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="9"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="12"/>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="9"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="9"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="12"/>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="9"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="12"/>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="9"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="12"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="9"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="12"/>
-    </row>
-    <row r="179" spans="1:8">
+    </row>
+    <row r="163" spans="1:10" s="8" customFormat="1">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="B163" s="19">
+        <v>30</v>
+      </c>
+      <c r="C163" s="19">
+        <v>1</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="8" customFormat="1">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="B164" s="19">
+        <v>30</v>
+      </c>
+      <c r="C164" s="19">
+        <v>2</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="8" customFormat="1">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="B165" s="19">
+        <v>30</v>
+      </c>
+      <c r="C165" s="19">
+        <v>3</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F165" s="17"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="8" customFormat="1">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="19">
+        <v>30</v>
+      </c>
+      <c r="C166" s="19">
+        <v>4</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H166" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="19">
+        <v>30</v>
+      </c>
+      <c r="C167" s="19">
+        <v>5</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="19">
+        <v>30</v>
+      </c>
+      <c r="C168" s="19">
+        <v>6</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E168" s="19"/>
+      <c r="F168" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G168" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="8" customFormat="1">
+      <c r="A169" s="8">
+        <v>168</v>
+      </c>
+      <c r="B169" s="19">
+        <v>30</v>
+      </c>
+      <c r="C169" s="19">
+        <v>7</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G169" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A170" s="8">
+        <v>169</v>
+      </c>
+      <c r="B170" s="19">
+        <v>30</v>
+      </c>
+      <c r="C170" s="19">
+        <v>8</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E170" s="19"/>
+      <c r="F170" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="8" customFormat="1">
+      <c r="A171" s="8">
+        <v>170</v>
+      </c>
+      <c r="B171" s="22">
+        <v>31</v>
+      </c>
+      <c r="C171" s="22">
+        <v>1</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I171" s="21"/>
+      <c r="J171" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="8" customFormat="1">
+      <c r="A172" s="8">
+        <v>171</v>
+      </c>
+      <c r="B172" s="22">
+        <v>31</v>
+      </c>
+      <c r="C172" s="22">
+        <v>2</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I172" s="21"/>
+      <c r="J172" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="8" customFormat="1">
+      <c r="A173" s="8">
+        <v>172</v>
+      </c>
+      <c r="B173" s="22">
+        <v>31</v>
+      </c>
+      <c r="C173" s="22">
+        <v>3</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I173" s="21"/>
+      <c r="J173" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="8" customFormat="1">
+      <c r="A174" s="8">
+        <v>173</v>
+      </c>
+      <c r="B174" s="22">
+        <v>31</v>
+      </c>
+      <c r="C174" s="22">
+        <v>4</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E174" s="22"/>
+      <c r="F174" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H174" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I174" s="21"/>
+      <c r="J174" s="21"/>
+    </row>
+    <row r="175" spans="1:10" s="8" customFormat="1">
+      <c r="A175" s="8">
+        <v>174</v>
+      </c>
+      <c r="B175" s="22">
+        <v>31</v>
+      </c>
+      <c r="C175" s="22">
+        <v>5</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E175" s="22"/>
+      <c r="F175" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H175" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I175" s="21"/>
+      <c r="J175" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="8" customFormat="1">
+      <c r="A176" s="8">
+        <v>175</v>
+      </c>
+      <c r="B176" s="22">
+        <v>31</v>
+      </c>
+      <c r="C176" s="22">
+        <v>6</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E176" s="22"/>
+      <c r="F176" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I176" s="21"/>
+      <c r="J176" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="8" customFormat="1">
+      <c r="A177" s="8">
+        <v>176</v>
+      </c>
+      <c r="B177" s="22">
+        <v>31</v>
+      </c>
+      <c r="C177" s="22">
+        <v>7</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E177" s="22"/>
+      <c r="F177" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H177" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="8" customFormat="1">
+      <c r="A178" s="8">
+        <v>177</v>
+      </c>
+      <c r="B178" s="22">
+        <v>31</v>
+      </c>
+      <c r="C178" s="22">
+        <v>8</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E178" s="22"/>
+      <c r="F178" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H178" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I178" s="21"/>
+      <c r="J178" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="9"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>

--- a/config_1.26/activity_exchange_server.xlsx
+++ b/config_1.26/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1271,27 +1271,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>暖心好礼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>暖心好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖心好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>暖心好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳兑奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳兑奖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2838,7 +2838,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C31" s="21">
         <v>1611619200</v>
@@ -2869,7 +2869,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C32" s="38">
         <v>1611619200</v>
@@ -2924,8 +2924,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3193,10 +3193,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>248</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3204,10 +3204,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>249</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3222,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
